--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 0 (22, 10, 50, 39, 48)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(22, 10, 50, 39, 48)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>9.550189923685754E-05</v>
+        <v>9.532633749233283E-05</v>
       </c>
       <c r="E2">
-        <v>9.550189923685754E-05</v>
+        <v>9.532633749233283E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.8860007022255491</v>
+        <v>0.8858080328161515</v>
       </c>
       <c r="E3">
-        <v>0.8860007022255491</v>
+        <v>0.8858080328161515</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7.669325908403936E-05</v>
+        <v>7.654298864016087E-05</v>
       </c>
       <c r="E4">
-        <v>7.669325908403936E-05</v>
+        <v>7.654298864016087E-05</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.668756657193022E-15</v>
+        <v>1.645060661414587E-15</v>
       </c>
       <c r="E5">
-        <v>1.668756657193022E-15</v>
+        <v>1.645060661414587E-15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5788492801642678</v>
+        <v>0.5789041841298012</v>
       </c>
       <c r="E6">
-        <v>0.5788492801642678</v>
+        <v>0.5789041841298012</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9875157308462894</v>
+        <v>1.605788219369724E-07</v>
       </c>
       <c r="E7">
-        <v>0.01248426915371059</v>
+        <v>0.9999998394211781</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9874941717763233</v>
+        <v>0.9302801168955777</v>
       </c>
       <c r="E8">
-        <v>0.01250582822367674</v>
+        <v>0.06971988310442234</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9876150306042236</v>
+        <v>0.9823815057254937</v>
       </c>
       <c r="E9">
-        <v>0.01238496939577638</v>
+        <v>0.01761849427450635</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9876711730936237</v>
+        <v>0.9999999164888559</v>
       </c>
       <c r="E10">
-        <v>0.01232882690637627</v>
+        <v>8.351114411109251E-08</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9877264064993406</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.01227359350065937</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3098863065242767</v>
+        <v>1.876946687698364</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2.597690348992266E-05</v>
+        <v>2.601121541647324E-05</v>
       </c>
       <c r="E12">
-        <v>2.597690348992266E-05</v>
+        <v>2.601121541647324E-05</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9734602870976371</v>
+        <v>0.9734773640976235</v>
       </c>
       <c r="E13">
-        <v>0.9734602870976371</v>
+        <v>0.9734773640976235</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>7.258557196365451E-06</v>
+        <v>7.267181660675463E-06</v>
       </c>
       <c r="E14">
-        <v>7.258557196365451E-06</v>
+        <v>7.267181660675463E-06</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2.796750031156749E-26</v>
+        <v>2.821612414598692E-26</v>
       </c>
       <c r="E15">
-        <v>2.796750031156749E-26</v>
+        <v>2.821612414598692E-26</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.3702588497525586</v>
+        <v>0.3698691962212504</v>
       </c>
       <c r="E16">
-        <v>0.3702588497525586</v>
+        <v>0.3698691962212504</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9966731374932623</v>
+        <v>1.805948999449052E-12</v>
       </c>
       <c r="E17">
-        <v>0.003326862506737749</v>
+        <v>0.999999999998194</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9965357218603945</v>
+        <v>0.9856250337970148</v>
       </c>
       <c r="E18">
-        <v>0.003464278139605481</v>
+        <v>0.01437496620298517</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.996728682933809</v>
+        <v>0.9653291138225722</v>
       </c>
       <c r="E19">
-        <v>0.003271317066190993</v>
+        <v>0.03467088617742775</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9967397967378758</v>
+        <v>0.9999999999998679</v>
       </c>
       <c r="E20">
-        <v>0.003260203262124173</v>
+        <v>1.321165399303936E-13</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9966425095667412</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.003357490433258836</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4108301997184753</v>
+        <v>3.118131875991821</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
